--- a/biology/Médecine/A_Story_of_Healing/A_Story_of_Healing.xlsx
+++ b/biology/Médecine/A_Story_of_Healing/A_Story_of_Healing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">A Story of Healing est un film documentaire américain réalisé par Donna Dewey et Carol Pasternak en 1997.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">A Story of Healing (une histoire de guérison) est un film documentaire de 33 minutes dans lequel on suit cinq infirmières, quatre anesthésistes et trois chirurgiens esthétiques lors d’une mission bénévole de deux semaines au delta du Mékong au Viêt Nam.
 </t>
@@ -542,7 +556,9 @@
           <t>Producteur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est produit par Interplast, une organisation internationale fondée en 1969 qui organise des opérations de réparation plastique gratuites dans les pays en développement, en particulier les enfants atteints de becs-de-lièvre et de malformations du palais.
 </t>
@@ -573,7 +589,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film est aujourd'hui distribué sous licence Creative Commons by-nc-nd en version originale et sous-titrée en français.
 </t>
